--- a/_downloads/98420945bd065c394491115b00cc21c3/sol_ex_7_2_3.xlsx
+++ b/_downloads/98420945bd065c394491115b00cc21c3/sol_ex_7_2_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eechris/code/src/github.com/cpjobling/eg-247-textbook/filter_design/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C3084-FB66-214C-A05A-E9ED91251E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A7CB7A-9AF5-D646-8118-4B6699CAE3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2960" windowWidth="34260" windowHeight="18680" xr2:uid="{357FF6EA-DAB1-1E42-AE88-4DD013161232}"/>
+    <workbookView xWindow="1380" yWindow="1740" windowWidth="34260" windowHeight="18680" xr2:uid="{357FF6EA-DAB1-1E42-AE88-4DD013161232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A3:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,8 +524,8 @@
         <v>0.6401</v>
       </c>
       <c r="D5" s="3">
-        <f>-1.1518*C4</f>
-        <v>-0.73726717999999991</v>
+        <f>-1.1518*B4</f>
+        <v>-1.1517999999999999</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -539,7 +539,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H8" si="1">SUM(C5:G5)</f>
-        <v>0.55144615000000019</v>
+        <v>0.13691333000000017</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -555,16 +555,16 @@
         <v>0.6401</v>
       </c>
       <c r="D6" s="3">
-        <f>-1.1518*C5</f>
-        <v>-0.73726717999999991</v>
+        <f t="shared" ref="D6:D8" si="2">-1.1518*B5</f>
+        <v>-1.1517999999999999</v>
       </c>
       <c r="E6" s="3">
-        <f>0.6401*C4</f>
-        <v>0.40972800999999998</v>
+        <f>0.6401*B4</f>
+        <v>0.6401</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F8" si="2">1.0133*H5</f>
-        <v>0.55878038379500028</v>
+        <f t="shared" ref="F6:F8" si="3">1.0133*H5</f>
+        <v>0.13873427728900017</v>
       </c>
       <c r="G6" s="3">
         <f>-0.419*H4</f>
@@ -572,7 +572,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>0.6031393137950003</v>
+        <v>-1.0676227109997494E-3</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -588,24 +588,24 @@
         <v>0.6401</v>
       </c>
       <c r="D7" s="3">
-        <f>-1.1518*C6</f>
-        <v>-0.73726717999999991</v>
+        <f t="shared" si="2"/>
+        <v>-1.1517999999999999</v>
       </c>
       <c r="E7" s="3">
-        <f>0.6401*C5</f>
-        <v>0.40972800999999998</v>
+        <f t="shared" ref="E7:E8" si="4">0.6401*B5</f>
+        <v>0.6401</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.61116106666847381</v>
+        <f t="shared" si="3"/>
+        <v>-1.0818220930560462E-3</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:G8" si="3">-0.419*H5</f>
-        <v>-0.23105593685000006</v>
+        <f t="shared" ref="G7:G8" si="5">-0.419*H5</f>
+        <v>-5.7366685270000065E-2</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>0.6926659598184739</v>
+        <v>6.995149263694396E-2</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -621,24 +621,24 @@
         <v>0.6401</v>
       </c>
       <c r="D8" s="3">
-        <f>-1.1518*C7</f>
-        <v>-0.73726717999999991</v>
+        <f t="shared" si="2"/>
+        <v>-1.1517999999999999</v>
       </c>
       <c r="E8" s="3">
-        <f>0.6401*C6</f>
-        <v>0.40972800999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.6401</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70187841708405962</v>
+        <f t="shared" si="3"/>
+        <v>7.0881847489015326E-2</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.25271537248010512</v>
+        <f t="shared" si="5"/>
+        <v>4.4733391590889496E-4</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.76172387460395463</v>
+        <v>0.19972918140492429</v>
       </c>
       <c r="I8" s="3"/>
     </row>
